--- a/DATA/IsoData/JERCIsoData.xlsx
+++ b/DATA/IsoData/JERCIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">a31a7d3f-9bcd-4439-86fe-863f124f1f3f</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e476f09d-03f8-49a6-8455-a72e0a4ed3af</t>
   </si>
   <si>
     <t xml:space="preserve">JERC.TOS.wet.deposition</t>
@@ -89,10 +92,13 @@
     <t xml:space="preserve">Sample ID label is missing, only barcode label is present on the sample vial</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T150714Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ff58f3b1-30a9-4e98-b6f3-f3350477692d</t>
+    <t xml:space="preserve">20210112T145715Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c282e7c1-4e28-4641-9062-aba14fd5ee32</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.JERC.20181127.1526</t>
@@ -104,10 +110,10 @@
     <t xml:space="preserve">A00000036380</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T152104Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34e5c4aa-1f26-4638-be49-da0a67e0c744</t>
+    <t xml:space="preserve">20210112T145851Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0e08a0f9-0350-45ff-8202-d8804047db1b</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.JERC.20181228.1034</t>
@@ -119,10 +125,10 @@
     <t xml:space="preserve">A00000036381</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T152156Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5a472f58-b401-4444-b5d1-5cc829142fd7</t>
+    <t xml:space="preserve">20210112T150106Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">451c60d9-bc11-47c8-a900-8b99fcafe5be</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.JERC.20190122.1257</t>
@@ -134,10 +140,10 @@
     <t xml:space="preserve">A00000036399</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T170916Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8bac8ac9-47e3-45ea-8cf7-5561dfd89507</t>
+    <t xml:space="preserve">20210112T155834Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9a8d8333-8aed-4ed6-9498-8e6a16faadd3</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.JERC.20190402.0909</t>
@@ -149,10 +155,10 @@
     <t xml:space="preserve">A00000037462</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T171505Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0569a7af-10c0-4e44-b524-f11c156b5f55</t>
+    <t xml:space="preserve">20210112T155912Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8055a413-b85a-46c4-8cce-385cab941dbe</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.JERC.20190417.0911</t>
@@ -164,7 +170,7 @@
     <t xml:space="preserve">A00000036482</t>
   </si>
   <si>
-    <t xml:space="preserve">1f8abb36-a58f-44a6-9702-e1e00e01890b</t>
+    <t xml:space="preserve">e177c3a3-673d-43ce-b720-fe817f6cab6e</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.JERC.20190501.0823</t>
@@ -176,10 +182,10 @@
     <t xml:space="preserve">A00000073125</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T150240Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a31d5791-b0a2-4f79-bf2b-1887aba445cd</t>
+    <t xml:space="preserve">20210111T191319Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1711f02c-764e-473f-b736-9f10a99d04ef</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.JERC.20190514.0741</t>
@@ -191,7 +197,7 @@
     <t xml:space="preserve">A00000036500</t>
   </si>
   <si>
-    <t xml:space="preserve">bc487cd2-b46e-4cab-a420-fc3dfe08a378</t>
+    <t xml:space="preserve">73a9f99a-c1ce-4bad-9432-dafa1f2c98c8</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.JERC.20190611.0840</t>
@@ -203,10 +209,10 @@
     <t xml:space="preserve">A00000037775</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T150607Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b1fb0957-ae54-421b-aad9-cc1e4cedb4c5</t>
+    <t xml:space="preserve">20210111T191929Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1a45d038-c4a7-402c-8cbb-175b9033b798</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.JERC.20190625.1130</t>
@@ -218,7 +224,7 @@
     <t xml:space="preserve">A00000037809</t>
   </si>
   <si>
-    <t xml:space="preserve">31c17144-e7c3-4b25-9539-74e42b52d04c</t>
+    <t xml:space="preserve">0e1c3e7e-108e-42ca-9764-a2908d5b33bb</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.JERC.20190710.0820</t>
@@ -230,10 +236,10 @@
     <t xml:space="preserve">A00000036450</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T150437Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4778dc93-d247-48ac-8cfc-833244d20648</t>
+    <t xml:space="preserve">20210111T191555Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">572a4a9d-3c52-471c-838b-0fdd7125ccdf</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.JERC.20190724.0805</t>
@@ -245,7 +251,7 @@
     <t xml:space="preserve">A00000036451</t>
   </si>
   <si>
-    <t xml:space="preserve">8695bd9b-11b5-47cc-924d-68f35ba71d57</t>
+    <t xml:space="preserve">dca58e1a-4954-4178-9537-517e7de30b8b</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.JERC.20190806.0918</t>
@@ -257,10 +263,10 @@
     <t xml:space="preserve">A00000036485</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T152041Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52916ce8-978e-457a-b009-57d5ca27baf2</t>
+    <t xml:space="preserve">20210111T192430Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">843dfb14-c31e-4303-8de5-7c522daf4bc4</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.JERC.20190820.0741</t>
@@ -272,7 +278,7 @@
     <t xml:space="preserve">A00000036424</t>
   </si>
   <si>
-    <t xml:space="preserve">36a85284-3b36-4b9d-bbff-75640087f866</t>
+    <t xml:space="preserve">1c5474e7-1c4b-452c-8138-984d22dba94d</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.JERC.20190904.0749</t>
@@ -284,10 +290,10 @@
     <t xml:space="preserve">A00000036425</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T150731Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bb6dbddf-8857-4432-b0f4-461d6d59ac8b</t>
+    <t xml:space="preserve">20210111T192232Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">958b8dea-fa97-4697-9fc6-c0d6570a5cba</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.JERC.20191015.0805</t>
@@ -302,10 +308,10 @@
     <t xml:space="preserve">no parafilm</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T152119Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28bed5a2-0e05-45c2-91d7-c40d2293d36c</t>
+    <t xml:space="preserve">20210111T192552Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e8686333-539e-4333-ae38-15d4af7e02d6</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.JERC.20191029.1512</t>
@@ -317,7 +323,7 @@
     <t xml:space="preserve">A00000128790</t>
   </si>
   <si>
-    <t xml:space="preserve">fda3e17a-ea30-4348-b144-b72fe73a1c7b</t>
+    <t xml:space="preserve">ad1141fa-2658-4d51-80a5-52e38b350e69</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.JERC.20191113.0937</t>
@@ -329,10 +335,10 @@
     <t xml:space="preserve">A00000128789</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T145912Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5d8e0838-c246-4d0d-adaa-d7b856568d67</t>
+    <t xml:space="preserve">20210111T185926Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a2b0061d-ec14-4478-a4df-2c67a001f4a0</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.JERC.20191125.0847</t>
@@ -344,7 +350,7 @@
     <t xml:space="preserve">A00000129482</t>
   </si>
   <si>
-    <t xml:space="preserve">2874aa0d-7bf2-422c-b236-1666be80ea99</t>
+    <t xml:space="preserve">53136a86-b2cb-48cd-ac49-719a322dd804</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.JERC.20191211.0911</t>
@@ -356,10 +362,10 @@
     <t xml:space="preserve">A00000036488</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T145836Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97a5df09-1f5b-4433-a3c0-bf28e6bf7578</t>
+    <t xml:space="preserve">20210111T184734Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7c29057e-a3c9-4050-aeae-6ea9ffbff095</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.JERC.20191223.0843</t>
@@ -374,7 +380,7 @@
     <t xml:space="preserve">Parafilm missing</t>
   </si>
   <si>
-    <t xml:space="preserve">4bbffb54-158f-4df1-af12-0540b3df38d9</t>
+    <t xml:space="preserve">768a54b7-dd7a-4a2f-ae54-089c5795247f</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.JERC.20200107.1419</t>
@@ -386,10 +392,13 @@
     <t xml:space="preserve">A00000129490</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T170634Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a825042d-8e1d-4ffa-90f4-27792e3e5a73</t>
+    <t xml:space="preserve">20210111T165143Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149069d5-8fb3-4c0e-a91b-698726edcabf</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.JERC.20200121.1408</t>
@@ -401,7 +410,7 @@
     <t xml:space="preserve">A00000129504</t>
   </si>
   <si>
-    <t xml:space="preserve">306b966e-98b6-4041-9c2f-181693d10d5b</t>
+    <t xml:space="preserve">fe65ea8d-c313-4661-91f1-dc43f6e07f7d</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.JERC.20200203.1442</t>
@@ -413,7 +422,46 @@
     <t xml:space="preserve">A00000036489</t>
   </si>
   <si>
-    <t xml:space="preserve">20200601T140110Z</t>
+    <t xml:space="preserve">20210111T170008Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57f346e8-1b93-4960-8fec-8a809a819a4a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.JERC.20200218.1106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.JERC.20200218.1106.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000036525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3122dcd0-6092-4a02-ad03-6b300d328e50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.JERC.20200303.0852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.JERC.20200303.0852.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000036506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210111T170137Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59720080-5a43-402f-9494-dcc305fb78e6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.JERC.20200317.1122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.JERC.20200317.1122.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000036507</t>
   </si>
 </sst>
 </file>
@@ -751,7 +799,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -805,23 +853,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43361.5833333333</v>
@@ -842,37 +893,40 @@
         <v>0.298</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43417.7916666667</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43417.7951388889</v>
@@ -893,35 +947,38 @@
         <v>0.072</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43494.7916666667</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43432.6041666667</v>
@@ -942,35 +999,38 @@
         <v>0.217</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43619.75</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43473.8319444444</v>
@@ -991,35 +1051,38 @@
         <v>0.246</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43619.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43487.7798611111</v>
@@ -1040,35 +1103,38 @@
         <v>0.148</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43623.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43557.5590277778</v>
@@ -1089,35 +1155,38 @@
         <v>0.171</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43658.75</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43572.5784722222</v>
@@ -1138,35 +1207,38 @@
         <v>0.469</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43658.75</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43586.5340277778</v>
@@ -1187,35 +1259,38 @@
         <v>0.1</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43664.75</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="R9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43613.5784722222</v>
@@ -1236,35 +1311,38 @@
         <v>0.23</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43742.75</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43627.5479166667</v>
@@ -1285,35 +1363,38 @@
         <v>0.113</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43742.75</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="R11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43641.6666666667</v>
@@ -1334,35 +1415,38 @@
         <v>0.127</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43742.75</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="R12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43656.5340277778</v>
@@ -1383,35 +1467,38 @@
         <v>0.096</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43742.75</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="R13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43670.5270833333</v>
@@ -1432,35 +1519,38 @@
         <v>0.207</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43742.75</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="R14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>43683.5715277778</v>
@@ -1481,35 +1571,38 @@
         <v>0.235</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>43811.7916666667</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="R15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>43697.5006944444</v>
@@ -1530,35 +1623,38 @@
         <v>0.176</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>43811.7916666667</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16"/>
       <c r="Q16" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="R16" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>43739.7340277778</v>
@@ -1579,37 +1675,40 @@
         <v>0.178</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>43857.7916666667</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q17" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="R17" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>43753.5173611111</v>
@@ -1630,37 +1729,40 @@
         <v>0.073</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>43857.7916666667</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q18" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="R18" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>43767.8125</v>
@@ -1681,37 +1783,40 @@
         <v>0.131</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>43857.7916666667</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q19" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="R19" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>43782.625</v>
@@ -1732,37 +1837,40 @@
         <v>0.169</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>43857.7916666667</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q20" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="R20" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>43794.5861111111</v>
@@ -1783,35 +1891,38 @@
         <v>0.339</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P21"/>
       <c r="Q21" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="R21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>43810.6145833333</v>
@@ -1832,37 +1943,40 @@
         <v>0.203</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q22" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="R22" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F23" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>43822.5854166667</v>
@@ -1883,37 +1997,40 @@
         <v>0.125</v>
       </c>
       <c r="M23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N23" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q23" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="R23" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>43837.8048611111</v>
@@ -1934,37 +2051,40 @@
         <v>0.128</v>
       </c>
       <c r="M24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q24" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="R24" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F25" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>43851.8173611111</v>
@@ -1985,17 +2105,176 @@
         <v>0.154</v>
       </c>
       <c r="M25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N25" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P25"/>
       <c r="Q25" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="R25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>43864.8208333333</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>43879.6708333333</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-3.452</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-14.809</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="M26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>44084.75</v>
+      </c>
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26"/>
+      <c r="Q26" t="s">
+        <v>136</v>
+      </c>
+      <c r="R26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>43879.6909722222</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>43893.5777777778</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-2.893</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-7.1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M27" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>44084.75</v>
+      </c>
+      <c r="O27" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27"/>
+      <c r="Q27" t="s">
+        <v>145</v>
+      </c>
+      <c r="R27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>43893.6041666667</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>43907.6402777778</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-2.801</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-8.777</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="M28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>44084.75</v>
+      </c>
+      <c r="O28" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28"/>
+      <c r="Q28" t="s">
+        <v>145</v>
+      </c>
+      <c r="R28" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
